--- a/analysis/participant_extractedmetrics/Participant170.xlsx
+++ b/analysis/participant_extractedmetrics/Participant170.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="66">
   <si>
     <t/>
   </si>
@@ -102,6 +102,12 @@
     <t>First fixation duration (ms)</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>arg3</t>
   </si>
   <si>
@@ -168,7 +174,7 @@
     <t>var9</t>
   </si>
   <si>
-    <t>NaN</t>
+    <t>total</t>
   </si>
   <si>
     <t>arg4</t>
@@ -211,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -222,6 +228,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,12 +253,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1490,7 +1520,692 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="4">
+        <v>91.0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>106.0</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2886.29</v>
+      </c>
+      <c r="E25" s="4">
+        <v>684.04</v>
+      </c>
+      <c r="F25" s="4">
+        <v>433.81</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="4">
+        <v>23047.03</v>
+      </c>
+      <c r="I25" s="4">
+        <v>417.1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1167.9</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="4">
+        <v>300.31</v>
+      </c>
+      <c r="O25" s="4">
+        <v>433.81</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>684.04</v>
+      </c>
+      <c r="R25" s="4">
+        <v>417.1</v>
+      </c>
+      <c r="S25" s="4">
+        <v>30631.86</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="4">
+        <v>23.93</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="S26" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4">
+        <v>262.39</v>
+      </c>
+      <c r="E27" s="4">
+        <v>342.02</v>
+      </c>
+      <c r="F27" s="4">
+        <v>216.91</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="4">
+        <v>253.26</v>
+      </c>
+      <c r="I27" s="4">
+        <v>417.1</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="4">
+        <v>233.58</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="4">
+        <v>300.31</v>
+      </c>
+      <c r="O27" s="4">
+        <v>216.91</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>342.02</v>
+      </c>
+      <c r="R27" s="4">
+        <v>417.1</v>
+      </c>
+      <c r="S27" s="4">
+        <v>288.98</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="4">
+        <v>266.94</v>
+      </c>
+      <c r="E28" s="4">
+        <v>266.94</v>
+      </c>
+      <c r="F28" s="4">
+        <v>266.94</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="4">
+        <v>69.29</v>
+      </c>
+      <c r="I28" s="4">
+        <v>417.1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="4">
+        <v>266.94</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="4">
+        <v>300.31</v>
+      </c>
+      <c r="O28" s="4">
+        <v>266.94</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>266.94</v>
+      </c>
+      <c r="R28" s="4">
+        <v>417.1</v>
+      </c>
+      <c r="S28" s="4">
+        <v>133.47</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A22:B22"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1516,28 +2231,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -1552,59 +2267,67 @@
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -1704,6 +2427,14 @@
         <v>0</v>
       </c>
       <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -1716,7 +2447,7 @@
         <v>9.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <v>37.0</v>
@@ -1737,7 +2468,7 @@
         <v>33.0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1">
         <v>6.0</v>
@@ -1767,7 +2498,7 @@
         <v>1.0</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V3" s="1">
         <v>2.0</v>
@@ -1782,7 +2513,7 @@
         <v>2.0</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AA3" s="1">
         <v>1.0</v>
@@ -1797,7 +2528,7 @@
         <v>2.0</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AF3" s="1">
         <v>1.0</v>
@@ -1805,6 +2536,14 @@
       <c r="AG3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -1817,7 +2556,7 @@
         <v>17.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>169.0</v>
@@ -1838,7 +2577,7 @@
         <v>94.0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1">
         <v>89.0</v>
@@ -1868,7 +2607,7 @@
         <v>2.0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V4" s="1">
         <v>3.0</v>
@@ -1883,7 +2622,7 @@
         <v>4.0</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AA4" s="1">
         <v>2.0</v>
@@ -1898,7 +2637,7 @@
         <v>3.0</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AF4" s="1">
         <v>2.0</v>
@@ -1906,6 +2645,14 @@
       <c r="AG4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -1918,7 +2665,7 @@
         <v>4905.24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>40400.25</v>
@@ -1939,7 +2686,7 @@
         <v>23747.72</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1">
         <v>23192.94</v>
@@ -1969,7 +2716,7 @@
         <v>483.77</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V5" s="1">
         <v>1318.03</v>
@@ -1984,7 +2731,7 @@
         <v>1407.98</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AA5" s="1">
         <v>367.08</v>
@@ -1999,7 +2746,7 @@
         <v>2135.67</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AF5" s="1">
         <v>333.59</v>
@@ -2007,6 +2754,14 @@
       <c r="AG5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -2019,7 +2774,7 @@
         <v>1.93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
         <v>15.93</v>
@@ -2040,7 +2795,7 @@
         <v>9.36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1">
         <v>31.08</v>
@@ -2070,7 +2825,7 @@
         <v>0.19</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V6" s="1">
         <v>0.52</v>
@@ -2085,7 +2840,7 @@
         <v>0.56</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AA6" s="1">
         <v>0.14</v>
@@ -2100,7 +2855,7 @@
         <v>0.84</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AF6" s="1">
         <v>0.13</v>
@@ -2108,6 +2863,14 @@
       <c r="AG6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -2120,7 +2883,7 @@
         <v>288.54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>239.05</v>
@@ -2141,7 +2904,7 @@
         <v>252.64</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1">
         <v>260.59</v>
@@ -2171,7 +2934,7 @@
         <v>241.89</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V7" s="1">
         <v>439.34</v>
@@ -2186,7 +2949,7 @@
         <v>352.0</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AA7" s="1">
         <v>183.54</v>
@@ -2201,7 +2964,7 @@
         <v>711.89</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AF7" s="1">
         <v>166.8</v>
@@ -2209,6 +2972,14 @@
       <c r="AG7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -2221,7 +2992,7 @@
         <v>150.12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>173.25</v>
@@ -2242,7 +3013,7 @@
         <v>173.25</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1">
         <v>100.13</v>
@@ -2272,7 +3043,7 @@
         <v>316.99</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V8" s="1">
         <v>367.04</v>
@@ -2287,7 +3058,7 @@
         <v>173.25</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AA8" s="1">
         <v>233.63</v>
@@ -2302,7 +3073,7 @@
         <v>800.88</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AF8" s="1">
         <v>150.01</v>
@@ -2310,6 +3081,14 @@
       <c r="AG8" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -2327,28 +3106,28 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>7</v>
@@ -2363,59 +3142,67 @@
         <v>11</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -2515,6 +3302,14 @@
         <v>0</v>
       </c>
       <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -2527,7 +3322,7 @@
         <v>8.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
         <v>29.0</v>
@@ -2548,7 +3343,7 @@
         <v>31.0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L16" s="1">
         <v>6.0</v>
@@ -2578,7 +3373,7 @@
         <v>1.0</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V16" s="1">
         <v>2.0</v>
@@ -2593,13 +3388,13 @@
         <v>2.0</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AA16" s="1">
         <v>1.0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AC16" s="1">
         <v>0.0</v>
@@ -2608,7 +3403,7 @@
         <v>2.0</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AF16" s="1">
         <v>0.0</v>
@@ -2616,6 +3411,14 @@
       <c r="AG16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -2628,7 +3431,7 @@
         <v>16.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1">
         <v>155.0</v>
@@ -2649,7 +3452,7 @@
         <v>89.0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1">
         <v>89.0</v>
@@ -2679,7 +3482,7 @@
         <v>2.0</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V17" s="1">
         <v>3.0</v>
@@ -2694,13 +3497,13 @@
         <v>4.0</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AA17" s="1">
         <v>2.0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AC17" s="1">
         <v>2.0</v>
@@ -2709,7 +3512,7 @@
         <v>3.0</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AF17" s="1">
         <v>1.0</v>
@@ -2717,6 +3520,14 @@
       <c r="AG17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -2729,7 +3540,7 @@
         <v>4721.73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1">
         <v>37263.18</v>
@@ -2750,7 +3561,7 @@
         <v>22463.1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L18" s="1">
         <v>23192.94</v>
@@ -2780,7 +3591,7 @@
         <v>483.77</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V18" s="1">
         <v>1318.03</v>
@@ -2795,13 +3606,13 @@
         <v>1407.98</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AA18" s="1">
         <v>367.08</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AC18" s="1">
         <v>333.7</v>
@@ -2810,7 +3621,7 @@
         <v>2135.67</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AF18" s="1">
         <v>150.01</v>
@@ -2818,6 +3629,14 @@
       <c r="AG18" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -2830,7 +3649,7 @@
         <v>2.64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
         <v>20.81</v>
@@ -2851,7 +3670,7 @@
         <v>12.55</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L19" s="1">
         <v>31.08</v>
@@ -2881,7 +3700,7 @@
         <v>0.27</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V19" s="1">
         <v>0.74</v>
@@ -2896,13 +3715,13 @@
         <v>0.79</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AA19" s="1">
         <v>0.21</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AC19" s="1">
         <v>0.19</v>
@@ -2911,7 +3730,7 @@
         <v>1.19</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AF19" s="1">
         <v>0.08</v>
@@ -2919,6 +3738,14 @@
       <c r="AG19" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -2931,7 +3758,7 @@
         <v>295.11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
         <v>240.41</v>
@@ -2952,7 +3779,7 @@
         <v>252.39</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L20" s="1">
         <v>260.59</v>
@@ -2982,7 +3809,7 @@
         <v>241.89</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V20" s="1">
         <v>439.34</v>
@@ -2997,13 +3824,13 @@
         <v>352.0</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AA20" s="1">
         <v>183.54</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AC20" s="1">
         <v>166.85</v>
@@ -3012,7 +3839,7 @@
         <v>711.89</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AF20" s="1">
         <v>150.01</v>
@@ -3020,6 +3847,14 @@
       <c r="AG20" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -3032,7 +3867,7 @@
         <v>150.12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
         <v>173.25</v>
@@ -3053,7 +3888,7 @@
         <v>173.25</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L21" s="1">
         <v>100.13</v>
@@ -3083,7 +3918,7 @@
         <v>316.99</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="V21" s="1">
         <v>367.04</v>
@@ -3098,13 +3933,13 @@
         <v>173.25</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AA21" s="1">
         <v>233.63</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AC21" s="1">
         <v>217.08</v>
@@ -3113,7 +3948,7 @@
         <v>800.88</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AF21" s="1">
         <v>150.01</v>
@@ -3121,8 +3956,855 @@
       <c r="AG21" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W27" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="4">
+        <v>89.0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W28" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3137.07</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1384.74</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1284.62</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1284.62</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="4">
+        <v>23192.94</v>
+      </c>
+      <c r="M29" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1918.62</v>
+      </c>
+      <c r="O29" s="4">
+        <v>817.58</v>
+      </c>
+      <c r="P29" s="4">
+        <v>517.18</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>750.75</v>
+      </c>
+      <c r="R29" s="4">
+        <v>483.88</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W29" s="4">
+        <v>10027.23</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>133.48</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>183.58</v>
+      </c>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1.86</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="4">
+        <v>31.08</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="N30" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W30" s="4">
+        <v>13.44</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="4">
+        <v>224.08</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="4">
+        <v>346.19</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="4">
+        <v>256.92</v>
+      </c>
+      <c r="J31" s="4">
+        <v>256.92</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="4">
+        <v>260.59</v>
+      </c>
+      <c r="M31" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="N31" s="4">
+        <v>274.09</v>
+      </c>
+      <c r="O31" s="4">
+        <v>272.53</v>
+      </c>
+      <c r="P31" s="4">
+        <v>517.18</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>375.37</v>
+      </c>
+      <c r="R31" s="4">
+        <v>483.88</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W31" s="4">
+        <v>385.66</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>133.48</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>183.58</v>
+      </c>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="4">
+        <v>100.47</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="4">
+        <v>150.12</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="J32" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="4">
+        <v>100.13</v>
+      </c>
+      <c r="M32" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="N32" s="4">
+        <v>150.12</v>
+      </c>
+      <c r="O32" s="4">
+        <v>183.58</v>
+      </c>
+      <c r="P32" s="4">
+        <v>517.18</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>517.18</v>
+      </c>
+      <c r="R32" s="4">
+        <v>483.88</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W32" s="4">
+        <v>266.96</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>133.48</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>183.58</v>
+      </c>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3139,1023 +4821,1026 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="6">
         <v>1.0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>34.0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>57.0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>49.0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>60.0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>49.0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>29.0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>60.0</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="AE4" s="6">
         <v>2.0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>71.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>352.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>209.0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>110.0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>267.0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>157.0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>71.0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>47.0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="W4" s="1">
+      <c r="AF4" s="6">
         <v>7.0</v>
       </c>
-      <c r="X4" s="1">
+      <c r="AG4" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="AM4" s="6">
         <v>5.0</v>
       </c>
-      <c r="Y4" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>264.0</v>
-      </c>
-      <c r="AC4" s="1">
+      <c r="AN4" s="6">
         <v>2.0</v>
       </c>
-      <c r="AD4" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="AE4" s="1">
+      <c r="AO4" s="6">
         <v>4.0</v>
       </c>
-      <c r="AF4" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AP4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1">
-        <v>166.82</v>
-      </c>
-      <c r="C5" s="1">
-        <v>533.92</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="1">
-        <v>166.83</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2284.76</v>
-      </c>
-      <c r="G5" s="1">
-        <v>19623.6</v>
-      </c>
-      <c r="H5" s="1">
-        <v>89475.95</v>
-      </c>
-      <c r="I5" s="1">
-        <v>53358.99</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5704.86</v>
-      </c>
-      <c r="K5" s="1">
-        <v>12096.24</v>
-      </c>
-      <c r="L5" s="1">
-        <v>5488.06</v>
-      </c>
-      <c r="M5" s="1">
-        <v>26130.09</v>
-      </c>
-      <c r="N5" s="1">
-        <v>5555.83</v>
-      </c>
-      <c r="O5" s="1">
-        <v>67924.19</v>
-      </c>
-      <c r="P5" s="1">
-        <v>13997.1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>38808.67</v>
-      </c>
-      <c r="R5" s="1">
-        <v>4604.83</v>
-      </c>
-      <c r="S5" s="1">
-        <v>22807.37</v>
-      </c>
-      <c r="T5" s="1">
-        <v>10059.36</v>
-      </c>
-      <c r="U5" s="1">
-        <v>7257.51</v>
-      </c>
-      <c r="V5" s="1">
-        <v>10861.57</v>
-      </c>
-      <c r="W5" s="1">
-        <v>2819.73</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1851.89</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>1184.43</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>2252.63</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>7574.69</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>79532.62</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>450.42</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>3236.7</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>1518.23</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>3069.89</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>3453.8</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>1651.7</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>550.58</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>4353.91</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>2686.01</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>1568.46</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>2536.01</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>1451.56</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>1017.8</v>
-      </c>
-      <c r="AP5" s="1" t="s">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>71.0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>352.0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>209.0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>36.0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>26.0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>110.0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>267.0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>59.0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>157.0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>71.0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>47.0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>36.0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>264.0</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="AO5" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="AP5" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5.15</v>
-      </c>
-      <c r="H6" s="1">
-        <v>23.49</v>
-      </c>
-      <c r="I6" s="1">
-        <v>14.01</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3.18</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1.44</v>
-      </c>
-      <c r="M6" s="1">
-        <v>42.69</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="O6" s="1">
-        <v>17.84</v>
-      </c>
-      <c r="P6" s="1">
-        <v>3.68</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>10.19</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1.21</v>
-      </c>
-      <c r="S6" s="1">
-        <v>5.99</v>
-      </c>
-      <c r="T6" s="1">
-        <v>2.64</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1.91</v>
-      </c>
-      <c r="V6" s="1">
-        <v>2.85</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1.99</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>20.88</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0.14</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>1.14</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="AP6" s="1" t="s">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6">
+        <v>166.82</v>
+      </c>
+      <c r="C6" s="6">
+        <v>533.92</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6">
+        <v>166.83</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2284.76</v>
+      </c>
+      <c r="G6" s="6">
+        <v>19623.6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>89475.95</v>
+      </c>
+      <c r="I6" s="6">
+        <v>53358.99</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5704.86</v>
+      </c>
+      <c r="K6" s="6">
+        <v>12096.24</v>
+      </c>
+      <c r="L6" s="6">
+        <v>5488.06</v>
+      </c>
+      <c r="M6" s="6">
+        <v>26130.09</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5555.83</v>
+      </c>
+      <c r="O6" s="6">
+        <v>67924.19</v>
+      </c>
+      <c r="P6" s="6">
+        <v>13997.1</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>38808.67</v>
+      </c>
+      <c r="R6" s="6">
+        <v>4604.83</v>
+      </c>
+      <c r="S6" s="6">
+        <v>22807.37</v>
+      </c>
+      <c r="T6" s="6">
+        <v>10059.36</v>
+      </c>
+      <c r="U6" s="6">
+        <v>7257.51</v>
+      </c>
+      <c r="V6" s="6">
+        <v>10861.57</v>
+      </c>
+      <c r="W6" s="6">
+        <v>2819.73</v>
+      </c>
+      <c r="X6" s="6">
+        <v>1851.89</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>1184.43</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>2252.63</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>7574.69</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>79532.62</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>450.42</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>3236.7</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>1518.23</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>3069.89</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>3453.8</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>1651.7</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>550.58</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>4353.91</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>2686.01</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>1568.46</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>2536.01</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>1451.56</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>1017.8</v>
+      </c>
+      <c r="AP6" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1">
-        <v>166.82</v>
-      </c>
-      <c r="C7" s="1">
-        <v>266.96</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1">
-        <v>166.83</v>
-      </c>
-      <c r="F7" s="1">
-        <v>190.4</v>
-      </c>
-      <c r="G7" s="1">
-        <v>276.39</v>
-      </c>
-      <c r="H7" s="1">
-        <v>254.19</v>
-      </c>
-      <c r="I7" s="1">
-        <v>255.31</v>
-      </c>
-      <c r="J7" s="1">
-        <v>190.16</v>
-      </c>
-      <c r="K7" s="1">
-        <v>336.01</v>
-      </c>
-      <c r="L7" s="1">
-        <v>211.08</v>
-      </c>
-      <c r="M7" s="1">
-        <v>237.55</v>
-      </c>
-      <c r="N7" s="1">
-        <v>264.56</v>
-      </c>
-      <c r="O7" s="1">
-        <v>254.4</v>
-      </c>
-      <c r="P7" s="1">
-        <v>237.24</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>247.19</v>
-      </c>
-      <c r="R7" s="1">
-        <v>328.92</v>
-      </c>
-      <c r="S7" s="1">
-        <v>321.23</v>
-      </c>
-      <c r="T7" s="1">
-        <v>214.03</v>
-      </c>
-      <c r="U7" s="1">
-        <v>403.2</v>
-      </c>
-      <c r="V7" s="1">
-        <v>301.71</v>
-      </c>
-      <c r="W7" s="1">
-        <v>402.82</v>
-      </c>
-      <c r="X7" s="1">
-        <v>370.38</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>197.4</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>173.28</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>344.3</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>301.26</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>225.21</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>404.59</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>379.56</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>306.99</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>383.76</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>275.28</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>550.58</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>197.9</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>244.18</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>261.41</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>422.67</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>483.85</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>169.63</v>
-      </c>
-      <c r="AP7" s="1" t="s">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5.15</v>
+      </c>
+      <c r="H7" s="6">
+        <v>23.49</v>
+      </c>
+      <c r="I7" s="6">
+        <v>14.01</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3.18</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1.44</v>
+      </c>
+      <c r="M7" s="6">
+        <v>42.69</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1.46</v>
+      </c>
+      <c r="O7" s="6">
+        <v>17.84</v>
+      </c>
+      <c r="P7" s="6">
+        <v>3.68</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>10.19</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1.21</v>
+      </c>
+      <c r="S7" s="6">
+        <v>5.99</v>
+      </c>
+      <c r="T7" s="6">
+        <v>2.64</v>
+      </c>
+      <c r="U7" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="V7" s="6">
+        <v>2.85</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>20.88</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>1.14</v>
+      </c>
+      <c r="AK7" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="AL7" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="AO7" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="AP7" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6">
+        <v>166.82</v>
+      </c>
+      <c r="C8" s="6">
+        <v>266.96</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6">
+        <v>166.83</v>
+      </c>
+      <c r="F8" s="6">
+        <v>190.4</v>
+      </c>
+      <c r="G8" s="6">
+        <v>276.39</v>
+      </c>
+      <c r="H8" s="6">
+        <v>254.19</v>
+      </c>
+      <c r="I8" s="6">
+        <v>255.31</v>
+      </c>
+      <c r="J8" s="6">
+        <v>190.16</v>
+      </c>
+      <c r="K8" s="6">
+        <v>336.01</v>
+      </c>
+      <c r="L8" s="6">
+        <v>211.08</v>
+      </c>
+      <c r="M8" s="6">
+        <v>237.55</v>
+      </c>
+      <c r="N8" s="6">
+        <v>264.56</v>
+      </c>
+      <c r="O8" s="6">
+        <v>254.4</v>
+      </c>
+      <c r="P8" s="6">
+        <v>237.24</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>247.19</v>
+      </c>
+      <c r="R8" s="6">
+        <v>328.92</v>
+      </c>
+      <c r="S8" s="6">
+        <v>321.23</v>
+      </c>
+      <c r="T8" s="6">
+        <v>214.03</v>
+      </c>
+      <c r="U8" s="6">
+        <v>403.2</v>
+      </c>
+      <c r="V8" s="6">
+        <v>301.71</v>
+      </c>
+      <c r="W8" s="6">
+        <v>402.82</v>
+      </c>
+      <c r="X8" s="6">
+        <v>370.38</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>197.4</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>173.28</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>344.3</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>301.26</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>225.21</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>404.59</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>379.56</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>306.99</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>383.76</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>275.28</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>550.58</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>197.9</v>
+      </c>
+      <c r="AK8" s="6">
+        <v>244.18</v>
+      </c>
+      <c r="AL8" s="6">
+        <v>261.41</v>
+      </c>
+      <c r="AM8" s="6">
+        <v>422.67</v>
+      </c>
+      <c r="AN8" s="6">
+        <v>483.85</v>
+      </c>
+      <c r="AO8" s="6">
+        <v>169.63</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="6">
         <v>166.82</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="6">
         <v>150.18</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6">
         <v>166.83</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="6">
         <v>99.93</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="6">
         <v>53.13</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="6">
         <v>53.13</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="6">
         <v>53.13</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J9" s="6">
         <v>116.81</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K9" s="6">
         <v>283.58</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L9" s="6">
         <v>250.32</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M9" s="6">
         <v>84.78</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N9" s="6">
         <v>66.8</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O9" s="6">
         <v>53.13</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P9" s="6">
         <v>250.32</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q9" s="6">
         <v>53.13</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R9" s="6">
         <v>150.12</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S9" s="6">
         <v>283.58</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T9" s="6">
         <v>250.32</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U9" s="6">
         <v>283.58</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V9" s="6">
         <v>317.0</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W9" s="6">
         <v>266.97</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X9" s="6">
         <v>133.49</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y9" s="6">
         <v>183.51</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z9" s="6">
         <v>116.81</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA9" s="6">
         <v>266.95</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB9" s="6">
         <v>266.94</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC9" s="6">
         <v>166.82</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD9" s="6">
         <v>216.94</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE9" s="6">
         <v>884.26</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AF9" s="6">
         <v>250.31</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AG9" s="6">
         <v>150.17</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH9" s="6">
         <v>350.37</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AI9" s="6">
         <v>550.58</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ9" s="6">
         <v>250.32</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AK9" s="6">
         <v>250.24</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AL9" s="6">
         <v>166.88</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AM9" s="6">
         <v>450.54</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AN9" s="6">
         <v>200.27</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AO9" s="6">
         <v>66.76</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AP9" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4175,16 +5860,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>3</v>
@@ -4193,100 +5878,100 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>0</v>
@@ -4429,7 +6114,7 @@
         <v>1.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1">
         <v>0.0</v>
@@ -4557,7 +6242,7 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
         <v>1.0</v>
@@ -4685,7 +6370,7 @@
         <v>533.92</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
         <v>166.83</v>
@@ -4813,7 +6498,7 @@
         <v>0.17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
         <v>0.05</v>
@@ -4941,7 +6626,7 @@
         <v>266.96</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1">
         <v>166.83</v>
@@ -5069,7 +6754,7 @@
         <v>150.18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1">
         <v>166.83</v>
@@ -5186,7 +6871,972 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>110.0</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO29" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="4">
+        <v>200.16</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2147.63</v>
+      </c>
+      <c r="I30" s="4">
+        <v>433.72</v>
+      </c>
+      <c r="J30" s="4">
+        <v>100.12</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="4">
+        <v>216.85</v>
+      </c>
+      <c r="M30" s="4">
+        <v>26130.09</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="4">
+        <v>967.58</v>
+      </c>
+      <c r="P30" s="4">
+        <v>500.47</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>433.72</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" s="4">
+        <v>233.56</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>100.04</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>283.62</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>166.81</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>3687.29</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>166.81</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>116.75</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>283.62</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="M31" s="4">
+        <v>42.69</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>6.02</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO31" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="4">
+        <v>100.08</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="4">
+        <v>153.4</v>
+      </c>
+      <c r="I32" s="4">
+        <v>108.43</v>
+      </c>
+      <c r="J32" s="4">
+        <v>100.12</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="4">
+        <v>108.42</v>
+      </c>
+      <c r="M32" s="4">
+        <v>237.55</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="4">
+        <v>161.26</v>
+      </c>
+      <c r="P32" s="4">
+        <v>125.12</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>108.43</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" s="4">
+        <v>116.78</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>100.04</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>141.81</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>166.81</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>230.46</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>166.81</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>116.75</v>
+      </c>
+      <c r="AL32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>141.81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="4">
+        <v>100.12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="I33" s="4">
+        <v>100.12</v>
+      </c>
+      <c r="J33" s="4">
+        <v>100.12</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="4">
+        <v>100.04</v>
+      </c>
+      <c r="M33" s="4">
+        <v>84.78</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="P33" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>100.12</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>100.04</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>166.81</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>100.12</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>166.81</v>
+      </c>
+      <c r="AH33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>116.75</v>
+      </c>
+      <c r="AL33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>183.5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A27:B27"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>